--- a/data/2023-11/rd_country_counts.xlsx
+++ b/data/2023-11/rd_country_counts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\mvpspider\data\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070349F-112B-44C5-A91F-8F0478BCD4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB25D78-1E7B-473D-85A7-48E1544B43F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,6 +233,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9399424-B702-4478-B291-06BC5F51AC65}" name="表1" displayName="表1" ref="A1:B49" totalsRowShown="0">
+  <autoFilter ref="A1:B49" xr:uid="{B9399424-B702-4478-B291-06BC5F51AC65}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8E1C31DF-99E4-405D-BFEA-6D2A47ABBDFF}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{99A3E8EF-5586-4A19-BBDF-D4134F469B93}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,5 +952,8 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>